--- a/AutoFixStation/AutoFixStationEmployeeWebApp/wwwroot/reports/ReportTOSparePart.xlsx
+++ b/AutoFixStation/AutoFixStationEmployeeWebApp/wwwroot/reports/ReportTOSparePart.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="Re1adf320efaa4cbf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="Re306f8934e5c4c31"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -13,7 +13,7 @@
     <x:t>Запчасти по ТО</x:t>
   </x:si>
   <x:si>
-    <x:t>ТО #1 по автомобилю "VW Polo"</x:t>
+    <x:t>ТО #2 по автомобилю "Lamborghini Countach"</x:t>
   </x:si>
   <x:si>
     <x:t>Список запчастей</x:t>
@@ -67,7 +67,7 @@
     <x:t>1500,0000</x:t>
   </x:si>
   <x:si>
-    <x:t>ТО #2 по автомобилю "Lamborghini Countach"</x:t>
+    <x:t>ТО #3 по автомобилю "VW Polo"</x:t>
   </x:si>
   <x:si>
     <x:t>Список запчастей</x:t>
@@ -107,18 +107,6 @@
   </x:si>
   <x:si>
     <x:t>160,0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Топливный фильтр</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1500,00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1500,0000</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -214,10 +202,7 @@
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="A3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
@@ -226,7 +211,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
         <x:v>5</x:v>
@@ -237,67 +222,105 @@
     </x:row>
     <x:row r="5">
       <x:c r="A5" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="A9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="B10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="A13" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B7" s="1" t="s">
+      <x:c r="B13" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C7" s="1" t="s">
+      <x:c r="C13" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D7" s="1" t="s">
+      <x:c r="D13" s="1" t="s">
         <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8">
-      <x:c r="A8" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="s">
-        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells>
     <x:mergeCell ref="A1:D1"/>
-    <x:mergeCell ref="A2:C2"/>
-    <x:mergeCell ref="B3:D3"/>
-    <x:mergeCell ref="A3:C3"/>
-    <x:mergeCell ref="B4:D4"/>
+    <x:mergeCell ref="A2:D2"/>
+    <x:mergeCell ref="B3:C3"/>
+    <x:mergeCell ref="A9:D9"/>
+    <x:mergeCell ref="B10:C10"/>
   </x:mergeCells>
 </x:worksheet>
 </file>
--- a/AutoFixStation/AutoFixStationEmployeeWebApp/wwwroot/reports/ReportTOSparePart.xlsx
+++ b/AutoFixStation/AutoFixStationEmployeeWebApp/wwwroot/reports/ReportTOSparePart.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="Re306f8934e5c4c31"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R1be5ac0ddba54756"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -13,6 +13,60 @@
     <x:t>Запчасти по ТО</x:t>
   </x:si>
   <x:si>
+    <x:t>ТО #1 по автомобилю "VW Polo"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Список запчастей</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Количество</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Цена за шт.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Стоимость</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Тормозной диск</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8000,0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Смазка для тормозов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160,0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Топливный фильтр</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1500,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1500,0000</x:t>
+  </x:si>
+  <x:si>
     <x:t>ТО #2 по автомобилю "Lamborghini Countach"</x:t>
   </x:si>
   <x:si>
@@ -68,6 +122,48 @@
   </x:si>
   <x:si>
     <x:t>ТО #3 по автомобилю "VW Polo"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Список запчастей</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Количество</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Цена за шт.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Стоимость</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Тормозной диск</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8000,0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Смазка для тормозов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160,0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ТО #4 по автомобилю "Lamborghini Countach"</x:t>
   </x:si>
   <x:si>
     <x:t>Список запчастей</x:t>
@@ -314,6 +410,124 @@
         <x:v>32</x:v>
       </x:c>
     </x:row>
+    <x:row r="14">
+      <x:c r="A14" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="B17" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="B23" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="A25" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D26" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells>
     <x:mergeCell ref="A1:D1"/>
@@ -321,6 +535,10 @@
     <x:mergeCell ref="B3:C3"/>
     <x:mergeCell ref="A9:D9"/>
     <x:mergeCell ref="B10:C10"/>
+    <x:mergeCell ref="A16:D16"/>
+    <x:mergeCell ref="B17:C17"/>
+    <x:mergeCell ref="A22:D22"/>
+    <x:mergeCell ref="B23:C23"/>
   </x:mergeCells>
 </x:worksheet>
 </file>